--- a/resultados/resumen_diario_recursos.xlsx
+++ b/resultados/resumen_diario_recursos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,76 +454,556 @@
           <t>vehiculos_utilizados</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>deficit_patrullas</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>nivel_peligrosidad</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.265758190385178</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.07700609353457001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.275352659334724</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.334727169472093</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.334727169472093</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>28</v>
+      </c>
+      <c r="C6" t="n">
+        <v>36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.275352659334724</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
+        <v>27</v>
+      </c>
+      <c r="C7" t="n">
+        <v>38</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.275352659334724</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>27</v>
+      </c>
+      <c r="C8" t="n">
+        <v>34</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.275352659334724</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>27</v>
+      </c>
+      <c r="C9" t="n">
+        <v>38</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.275352659334724</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>27</v>
+      </c>
+      <c r="C10" t="n">
+        <v>32</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.334727169472093</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>28</v>
+      </c>
+      <c r="C11" t="n">
+        <v>38</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.275352659334724</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>27</v>
+      </c>
+      <c r="C12" t="n">
+        <v>36</v>
+      </c>
+      <c r="D12" t="n">
         <v>15</v>
       </c>
-      <c r="C6" t="n">
+      <c r="E12" t="n">
+        <v>1.334727169472093</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>28</v>
+      </c>
+      <c r="C13" t="n">
+        <v>39</v>
+      </c>
+      <c r="D13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.215978149197356</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>26</v>
+      </c>
+      <c r="C14" t="n">
+        <v>33</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.275352659334724</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>27</v>
+      </c>
+      <c r="C15" t="n">
+        <v>34</v>
+      </c>
+      <c r="D15" t="n">
+        <v>17</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.275352659334724</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="D6" t="n">
-        <v>7</v>
-      </c>
+      <c r="B16" t="n">
+        <v>27</v>
+      </c>
+      <c r="C16" t="n">
+        <v>44</v>
+      </c>
+      <c r="D16" t="n">
+        <v>16</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.215978149197356</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>26</v>
+      </c>
+      <c r="C17" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" t="n">
+        <v>13</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.156603639059988</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>25</v>
+      </c>
+      <c r="C18" t="n">
+        <v>34</v>
+      </c>
+      <c r="D18" t="n">
+        <v>13</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.453476189746829</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>30</v>
+      </c>
+      <c r="C19" t="n">
+        <v>48</v>
+      </c>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.394101679609461</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>29</v>
+      </c>
+      <c r="C20" t="n">
+        <v>38</v>
+      </c>
+      <c r="D20" t="n">
+        <v>15</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.334727169472093</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>28</v>
+      </c>
+      <c r="C21" t="n">
+        <v>41</v>
+      </c>
+      <c r="D21" t="n">
+        <v>16</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.334727169472092</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>36</v>
+      </c>
+      <c r="D22" t="n">
+        <v>13</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.215978149197356</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>26</v>
+      </c>
+      <c r="C23" t="n">
+        <v>40</v>
+      </c>
+      <c r="D23" t="n">
+        <v>13</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.156603639059988</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>25</v>
+      </c>
+      <c r="C24" t="n">
+        <v>30</v>
+      </c>
+      <c r="D24" t="n">
+        <v>12</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.215978149197356</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>26</v>
+      </c>
+      <c r="C25" t="n">
+        <v>32</v>
+      </c>
+      <c r="D25" t="n">
+        <v>12</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.215978149197356</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>26</v>
+      </c>
+      <c r="C26" t="n">
+        <v>37</v>
+      </c>
+      <c r="D26" t="n">
+        <v>14</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.215978149197356</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>33</v>
+      </c>
+      <c r="D27" t="n">
+        <v>15</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.215978149197356</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>39</v>
+      </c>
+      <c r="D28" t="n">
+        <v>13</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.156603639059988</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>25</v>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>13</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.215978149197356</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>26</v>
+      </c>
+      <c r="C30" t="n">
+        <v>38</v>
+      </c>
+      <c r="D30" t="n">
+        <v>16</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.334727169472093</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>28</v>
+      </c>
+      <c r="C31" t="n">
+        <v>31</v>
+      </c>
+      <c r="D31" t="n">
+        <v>15</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/resultados/resumen_diario_recursos.xlsx
+++ b/resultados/resumen_diario_recursos.xlsx
@@ -456,12 +456,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>deficit_patrullas</t>
+          <t>peligrosidad_acumulada</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>nivel_peligrosidad</t>
+          <t>deficit_cobertura</t>
         </is>
       </c>
     </row>
@@ -470,19 +470,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
-        <v>1.265758190385178</v>
+        <v>4.307525459239303</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07700609353457001</v>
+        <v>0.1810872843896159</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +490,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
-        <v>1.275352659334724</v>
+        <v>4.430604364601357</v>
       </c>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -508,16 +508,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E4" t="n">
-        <v>1.334727169472093</v>
+        <v>4.251871129314051</v>
       </c>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -526,16 +526,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>1.334727169472093</v>
+        <v>4.430604364601356</v>
       </c>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -544,16 +544,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>1.275352659334724</v>
+        <v>3.894404658739439</v>
       </c>
       <c r="F6" t="inlineStr"/>
     </row>
@@ -565,13 +565,13 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E7" t="n">
-        <v>1.275352659334724</v>
+        <v>4.073137894026745</v>
       </c>
       <c r="F7" t="inlineStr"/>
     </row>
@@ -580,16 +580,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E8" t="n">
-        <v>1.275352659334724</v>
+        <v>4.251871129314052</v>
       </c>
       <c r="F8" t="inlineStr"/>
     </row>
@@ -598,16 +598,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>1.275352659334724</v>
+        <v>4.430604364601357</v>
       </c>
       <c r="F9" t="inlineStr"/>
     </row>
@@ -616,16 +616,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E10" t="n">
-        <v>1.334727169472093</v>
+        <v>4.073137894026745</v>
       </c>
       <c r="F10" t="inlineStr"/>
     </row>
@@ -637,13 +637,13 @@
         <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>1.275352659334724</v>
+        <v>4.609337599888662</v>
       </c>
       <c r="F11" t="inlineStr"/>
     </row>
@@ -652,16 +652,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E12" t="n">
-        <v>1.334727169472093</v>
+        <v>4.251871129314051</v>
       </c>
       <c r="F12" t="inlineStr"/>
     </row>
@@ -670,16 +670,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E13" t="n">
-        <v>1.215978149197356</v>
+        <v>4.073137894026745</v>
       </c>
       <c r="F13" t="inlineStr"/>
     </row>
@@ -688,16 +688,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D14" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E14" t="n">
-        <v>1.275352659334724</v>
+        <v>4.073137894026745</v>
       </c>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -706,16 +706,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="n">
         <v>34</v>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E15" t="n">
-        <v>1.275352659334724</v>
+        <v>3.715671423452134</v>
       </c>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -724,16 +724,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" t="n">
-        <v>1.215978149197356</v>
+        <v>4.251871129314051</v>
       </c>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -742,16 +742,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C17" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E17" t="n">
-        <v>1.156603639059988</v>
+        <v>4.073137894026745</v>
       </c>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -760,16 +760,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C18" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E18" t="n">
-        <v>1.453476189746829</v>
+        <v>3.715671423452134</v>
       </c>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -778,16 +778,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C19" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="n">
-        <v>1.394101679609461</v>
+        <v>3.89440465873944</v>
       </c>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -796,16 +796,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>1.334727169472093</v>
+        <v>3.89440465873944</v>
       </c>
       <c r="F20" t="inlineStr"/>
     </row>
@@ -814,16 +814,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E21" t="n">
-        <v>1.334727169472092</v>
+        <v>4.073137894026745</v>
       </c>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -835,13 +835,13 @@
         <v>28</v>
       </c>
       <c r="C22" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E22" t="n">
-        <v>1.215978149197356</v>
+        <v>4.073137894026745</v>
       </c>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -850,16 +850,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E23" t="n">
-        <v>1.156603639059988</v>
+        <v>4.251871129314051</v>
       </c>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -868,16 +868,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E24" t="n">
-        <v>1.215978149197356</v>
+        <v>3.715671423452134</v>
       </c>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -892,10 +892,10 @@
         <v>32</v>
       </c>
       <c r="D25" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E25" t="n">
-        <v>1.215978149197356</v>
+        <v>3.89440465873944</v>
       </c>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -904,16 +904,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D26" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E26" t="n">
-        <v>1.215978149197356</v>
+        <v>3.89440465873944</v>
       </c>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -922,16 +922,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" t="n">
-        <v>1.215978149197356</v>
+        <v>4.430604364601357</v>
       </c>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -940,16 +940,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D28" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E28" t="n">
-        <v>1.156603639059988</v>
+        <v>4.609337599888663</v>
       </c>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -958,16 +958,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C29" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D29" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E29" t="n">
-        <v>1.215978149197356</v>
+        <v>4.609337599888662</v>
       </c>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -976,16 +976,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C30" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D30" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E30" t="n">
-        <v>1.334727169472093</v>
+        <v>4.073137894026745</v>
       </c>
       <c r="F30" t="inlineStr"/>
     </row>
@@ -997,10 +997,10 @@
         <v>28</v>
       </c>
       <c r="C31" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>

--- a/resultados/resumen_diario_recursos.xlsx
+++ b/resultados/resumen_diario_recursos.xlsx
@@ -473,16 +473,16 @@
         <v>40</v>
       </c>
       <c r="C2" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
-        <v>4.307525459239303</v>
+        <v>3.771325753376457</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1810872843896159</v>
+        <v>0.1810872843901731</v>
       </c>
     </row>
     <row r="3">
@@ -490,13 +490,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
         <v>4.430604364601357</v>
@@ -511,13 +511,13 @@
         <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" t="n">
         <v>23</v>
       </c>
       <c r="E4" t="n">
-        <v>4.251871129314051</v>
+        <v>4.430604364601357</v>
       </c>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -526,16 +526,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>4.430604364601356</v>
+        <v>4.430604364601357</v>
       </c>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -553,7 +553,7 @@
         <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>3.894404658739439</v>
+        <v>4.073137894026745</v>
       </c>
       <c r="F6" t="inlineStr"/>
     </row>
@@ -562,7 +562,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
         <v>39</v>
@@ -571,7 +571,7 @@
         <v>22</v>
       </c>
       <c r="E7" t="n">
-        <v>4.073137894026745</v>
+        <v>4.251871129314051</v>
       </c>
       <c r="F7" t="inlineStr"/>
     </row>
@@ -580,16 +580,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>4.251871129314052</v>
+        <v>4.251871129314051</v>
       </c>
       <c r="F8" t="inlineStr"/>
     </row>
@@ -601,7 +601,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" t="n">
         <v>21</v>
@@ -619,13 +619,13 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="n">
         <v>22</v>
       </c>
       <c r="E10" t="n">
-        <v>4.073137894026745</v>
+        <v>3.89440465873944</v>
       </c>
       <c r="F10" t="inlineStr"/>
     </row>
@@ -634,13 +634,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11" t="n">
         <v>4.609337599888662</v>
@@ -655,13 +655,13 @@
         <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" t="n">
-        <v>4.251871129314051</v>
+        <v>4.073137894026745</v>
       </c>
       <c r="F12" t="inlineStr"/>
     </row>
@@ -670,16 +670,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D13" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E13" t="n">
-        <v>4.073137894026745</v>
+        <v>4.251871129314051</v>
       </c>
       <c r="F13" t="inlineStr"/>
     </row>
@@ -688,16 +688,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" t="n">
-        <v>4.073137894026745</v>
+        <v>3.536938188164828</v>
       </c>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -706,16 +706,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E15" t="n">
-        <v>3.715671423452134</v>
+        <v>3.89440465873944</v>
       </c>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -724,16 +724,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>4.251871129314051</v>
+        <v>4.430604364601357</v>
       </c>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -742,13 +742,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" t="n">
         <v>4.073137894026745</v>
@@ -781,13 +781,13 @@
         <v>26</v>
       </c>
       <c r="C19" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" t="n">
-        <v>3.89440465873944</v>
+        <v>4.251871129314051</v>
       </c>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -796,13 +796,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C20" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" t="n">
         <v>3.89440465873944</v>
@@ -820,10 +820,10 @@
         <v>39</v>
       </c>
       <c r="D21" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E21" t="n">
-        <v>4.073137894026745</v>
+        <v>4.430604364601357</v>
       </c>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -832,16 +832,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C22" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E22" t="n">
-        <v>4.073137894026745</v>
+        <v>3.894404658739439</v>
       </c>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -850,13 +850,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E23" t="n">
         <v>4.251871129314051</v>
@@ -871,10 +871,10 @@
         <v>29</v>
       </c>
       <c r="C24" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" t="n">
         <v>3.715671423452134</v>
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="D25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E25" t="n">
         <v>3.89440465873944</v>
@@ -907,13 +907,13 @@
         <v>27</v>
       </c>
       <c r="C26" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E26" t="n">
-        <v>3.89440465873944</v>
+        <v>4.251871129314051</v>
       </c>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -922,16 +922,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C27" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E27" t="n">
-        <v>4.430604364601357</v>
+        <v>4.609337599888662</v>
       </c>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -940,7 +940,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" t="n">
         <v>45</v>
@@ -949,7 +949,7 @@
         <v>24</v>
       </c>
       <c r="E28" t="n">
-        <v>4.609337599888663</v>
+        <v>4.609337599888662</v>
       </c>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -961,10 +961,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E29" t="n">
         <v>4.609337599888662</v>
@@ -979,13 +979,13 @@
         <v>31</v>
       </c>
       <c r="C30" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D30" t="n">
         <v>24</v>
       </c>
       <c r="E30" t="n">
-        <v>4.073137894026745</v>
+        <v>4.251871129314051</v>
       </c>
       <c r="F30" t="inlineStr"/>
     </row>
@@ -994,10 +994,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D31" t="n">
         <v>13</v>
